--- a/assets/disciplinas/LOQ4244.xlsx
+++ b/assets/disciplinas/LOQ4244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer conhecimentos básicos e aplicações das técnicas usuais de manufatura enxuta e estratégia Seis Sigma, apresentando conceitos, princípios e ferramentas utilizados nesta abordagem. Será dado ênfase na mentalidade enxuta, no mapeamento de fluxo de valor, projeto de sistemas de controle de produção enxuta, projeto de células de manufatura, desenvolvimento de trabalhadores multifuncionais e definição de requisitos para a implementação de linhas de produção enxuta.</t>
+    <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840535 - Messias Borges Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>O Pensamento Enxuto; Categorias de Desperdícios; Entendendo o Fluxo de Valor; Mapeamento de Fluxo de Valor; Takt Time; Sistema de Produção Puxada; Criação de fluxo contínuo de produção; Células de Manufatura; Elementos de Controle de Produção; Ferramentas para produção Enxuta. A Estratégia Six Sigma</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>A Abordagem da Produção Enxuta; História; O Pensamento Enxuto; Categorias de Desperdícios; Metodologia DMAIC aplicada ao Lean; Cultura organizacional para o Lean; Entendendo o Fluxo de Valor; Mapeamento de Fluxo de Valor; Fluxo de Material e de Informação; Características do Fluxo de Valor Enxuto; Conceito de Takt Time; Análise de Capacidades; Sistema de Produção Puxada; Criação de fluxo contínuo de produção; Células de Manufatura; Critérios para o Projeto de Células; Diagrama de Espaguete; Preparação da Força de Trabalho; Elementos de Controle de Produção; Kanban; Heijunka Box; Dimensionamento de Kanbans; Aspectos de Gestão da Implantação; Gestão Visual. A Estratégia Seis Sigma e o Método DMAIC.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas Expositivas; trabalhos e seminários.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (0,30*P1 + 0,30*P2 + 0,40*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>WOMACK, J.P.; JONES, D.T. Lean Thinking,  Free Press, 2010WOMACK, J.P.; JONES, D.T., Lean Solutions, 2009DENIS, P, Produçao Lean Simplificada,  Bookman, 2008 HARRY, M. , LINSENMANND.R., The Six Sigma Fieldbook, Doubleday, New York, 2006KUME, H. (Tradução Miyake, D.I.). 1993. Métodos Estatísticos para Melhoria da Qualidade. São Paulo. Editora Gente, 245 p.HARRY, M. , LINSENMANND.R., The Six Sigma Fieldbook, Doubleday, New York, 2006ISHIKAWA, K. Guide to quality control. Tokyo: Kraus Asian Productivity Organization, 1982.JURAN, J.M.; GRYNA, F.M. Juran controle da qualidade: métodos especiais de apoio à qualidade. São Paulo: Makron Books, 1993LIKER, K. &amp; MEIER D. O Modelo Toyota, Manual de Aplicação. Porto Alegre: Bookman, 2007MARANHÃO, M. ISO Série 9000-Guia de Implementação, Qualitymark, Rio de Janeiro, 2001MONTGOMERY, D.C. 1991. Introduction to Statistical Quality Control. New York. John Wiley &amp; Sons Inc.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4244.xlsx
+++ b/assets/disciplinas/LOQ4244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer conhecimentos básicos e aplicações das técnicas usuais de manufatura enxuta e estratégia Seis Sigma, apresentando conceitos, princípios e ferramentas utilizados nesta abordagem. Será dado ênfase na mentalidade enxuta, no mapeamento de fluxo de valor, projeto de sistemas de controle de produção enxuta, projeto de células de manufatura, desenvolvimento de trabalhadores multifuncionais e definição de requisitos para a implementação de linhas de produção enxuta.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide basic knowledge and applications of the usual techniques of lean manufacturing and six sigma, presenting concepts, principles and tools used in this approach. Emphasis will be placed on lean thinking, value stream mapping, lean production control systems design, manufacturing cell design, multifunction worker development, and requirements definition for the implementation of lean production lines</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840535 - Messias Borges Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide basic knowledge and applications of the usual techniques of lean manufacturing and six sigma, presenting concepts, principles and tools used in this approach. Emphasis will be placed on lean thinking, value stream mapping, lean production control systems design, manufacturing cell design, multifunction worker development, and requirements definition for the implementation of lean production lines</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>O Pensamento Enxuto; Categorias de Desperdícios; Entendendo o Fluxo de Valor; Mapeamento de Fluxo de Valor; Takt Time; Sistema de Produção Puxada; Criação de fluxo contínuo de produção; Células de Manufatura; Elementos de Controle de Produção; Ferramentas para produção Enxuta. A Estratégia Six Sigma</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>A Abordagem da Produção Enxuta; História; O Pensamento Enxuto; Categorias de Desperdícios; Metodologia DMAIC aplicada ao Lean; Cultura organizacional para o Lean; Entendendo o Fluxo de Valor; Mapeamento de Fluxo de Valor; Fluxo de Material e de Informação; Características do Fluxo de Valor Enxuto; Conceito de Takt Time; Análise de Capacidades; Sistema de Produção Puxada; Criação de fluxo contínuo de produção; Células de Manufatura; Critérios para o Projeto de Células; Diagrama de Espaguete; Preparação da Força de Trabalho; Elementos de Controle de Produção; Kanban; Heijunka Box; Dimensionamento de Kanbans; Aspectos de Gestão da Implantação; Gestão Visual. A Estratégia Seis Sigma e o Método DMAIC.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas Expositivas; trabalhos e seminários.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas Expositivas; trabalhos e seminários.</t>
+    <t>MF = (0,30*P1 + 0,30*P2 + 0,40*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (0,30*P1 + 0,30*P2 + 0,40*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
+    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação</t>
+    <t>WOMACK, J.P.; JONES, D.T. Lean Thinking,  Free Press, 2010WOMACK, J.P.; JONES, D.T., Lean Solutions, 2009DENIS, P, Produçao Lean Simplificada,  Bookman, 2008 HARRY, M. , LINSENMANND.R., The Six Sigma Fieldbook, Doubleday, New York, 2006KUME, H. (Tradução Miyake, D.I.). 1993. Métodos Estatísticos para Melhoria da Qualidade. São Paulo. Editora Gente, 245 p.HARRY, M. , LINSENMANND.R., The Six Sigma Fieldbook, Doubleday, New York, 2006ISHIKAWA, K. Guide to quality control. Tokyo: Kraus Asian Productivity Organization, 1982.JURAN, J.M.; GRYNA, F.M. Juran controle da qualidade: métodos especiais de apoio à qualidade. São Paulo: Makron Books, 1993LIKER, K. &amp; MEIER D. O Modelo Toyota, Manual de Aplicação. Porto Alegre: Bookman, 2007MARANHÃO, M. ISO Série 9000-Guia de Implementação, Qualitymark, Rio de Janeiro, 2001MONTGOMERY, D.C. 1991. Introduction to Statistical Quality Control. New York. John Wiley &amp; Sons Inc.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
